--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.022</v>
+        <v>16.03940000000001</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.3442</v>
+        <v>16.38939999999999</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.644399999999998</v>
+        <v>-7.8339</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.728099999999999</v>
+        <v>-6.9232</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.81580000000002</v>
+        <v>16.58090000000001</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.486399999999998</v>
+        <v>-8.4922</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.30819999999998</v>
+        <v>16.38589999999998</v>
       </c>
     </row>
     <row r="27">
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.546000000000003</v>
+        <v>-8.441800000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.193900000000003</v>
+        <v>-8.347299999999997</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.508499999999997</v>
+        <v>-7.7818</v>
       </c>
       <c r="E31" t="n">
-        <v>16.887</v>
+        <v>16.85560000000001</v>
       </c>
     </row>
     <row r="32">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.700899999999994</v>
+        <v>-8.899999999999991</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.7232</v>
+        <v>16.6496</v>
       </c>
     </row>
     <row r="36">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.210899999999999</v>
+        <v>-8.177399999999999</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.5838</v>
+        <v>16.5792</v>
       </c>
     </row>
     <row r="38">
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.083299999999999</v>
+        <v>-7.974000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.51959999999999</v>
+        <v>16.43350000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.05420000000001</v>
+        <v>17.00460000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.54069999999999</v>
+        <v>16.51609999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.369</v>
+        <v>-8.506099999999998</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.21800000000001</v>
+        <v>17.3686</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.283400000000004</v>
+        <v>-8.213900000000006</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.239099999999997</v>
+        <v>-8.367099999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.893599999999998</v>
+        <v>-8.047699999999995</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.58309999999999</v>
+        <v>16.66740000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.460699999999996</v>
+        <v>-6.337199999999996</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.980099999999996</v>
+        <v>-6.909799999999997</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.335699999999999</v>
+        <v>-7.422200000000001</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.740899999999999</v>
+        <v>-7.605099999999994</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.2415</v>
+        <v>15.93550000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1848,10 +1848,10 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.589300000000003</v>
+        <v>-8.676300000000005</v>
       </c>
       <c r="E83" t="n">
-        <v>16.4289</v>
+        <v>16.57319999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.542199999999995</v>
+        <v>-7.391399999999993</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.528499999999997</v>
+        <v>-6.564399999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.543899999999995</v>
+        <v>-6.561899999999998</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.719100000000003</v>
+        <v>-7.660200000000006</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4538</v>
+        <v>16.4039</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.62089999999999</v>
+        <v>16.85029999999998</v>
       </c>
     </row>
   </sheetData>
